--- a/3D_Boids_Render/renderInfo_90.xlsx
+++ b/3D_Boids_Render/renderInfo_90.xlsx
@@ -59,9 +59,9 @@
   <dimension ref="A1:AA1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="true"/>
+    <col min="1" max="1" width="4.140625" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="4.140625" customWidth="true"/>
+    <col min="3" max="3" width="3.140625" customWidth="true"/>
     <col min="4" max="4" width="2.140625" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="2.140625" customWidth="true"/>
@@ -75,11 +75,11 @@
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
     <col min="15" max="15" width="2.140625" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="10.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
     <col min="19" max="19" width="4.140625" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="4.140625" customWidth="true"/>
+    <col min="21" max="21" width="3.140625" customWidth="true"/>
     <col min="22" max="22" width="2.140625" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="2.140625" customWidth="true"/>
@@ -90,85 +90,85 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>1248</v>
+        <v>352</v>
       </c>
       <c r="B1" s="0">
-        <v>720.45555555555552</v>
+        <v>207.27777777777777</v>
       </c>
       <c r="C1" s="0">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="D1" s="0">
         <v>3</v>
       </c>
       <c r="E1" s="0">
-        <v>2.917279103246095</v>
+        <v>2.8980963584985338</v>
       </c>
       <c r="F1" s="0">
         <v>0</v>
       </c>
       <c r="G1" s="0">
-        <v>142.8544434008158</v>
+        <v>145.37566224662393</v>
       </c>
       <c r="H1" s="0">
-        <v>81.973543252047037</v>
+        <v>89.414958843508899</v>
       </c>
       <c r="I1" s="0">
-        <v>13.655932762257091</v>
+        <v>41.204016643019706</v>
       </c>
       <c r="J1" s="0">
-        <v>667</v>
+        <v>123</v>
       </c>
       <c r="K1" s="0">
-        <v>625.86666666666667</v>
+        <v>113.77777777777777</v>
       </c>
       <c r="L1" s="0">
-        <v>574</v>
+        <v>104</v>
       </c>
       <c r="M1" s="0">
         <v>3</v>
       </c>
       <c r="N1" s="0">
-        <v>2.6148006677115703</v>
+        <v>2.8763245010906857</v>
       </c>
       <c r="O1" s="0">
         <v>0</v>
       </c>
       <c r="P1" s="0">
-        <v>70.438836811180167</v>
+        <v>71.229364040439862</v>
       </c>
       <c r="Q1" s="0">
-        <v>65.472593884032548</v>
+        <v>65.586950501467228</v>
       </c>
       <c r="R1" s="0">
-        <v>59.239982436868559</v>
+        <v>59.565981049220092</v>
       </c>
       <c r="S1" s="0">
-        <v>630</v>
+        <v>114</v>
       </c>
       <c r="T1" s="0">
-        <v>578.33333333333337</v>
+        <v>104.43333333333334</v>
       </c>
       <c r="U1" s="0">
-        <v>511</v>
+        <v>87</v>
       </c>
       <c r="V1" s="0">
         <v>3</v>
       </c>
       <c r="W1" s="0">
-        <v>2.5827791306738095</v>
+        <v>2.8646461641218961</v>
       </c>
       <c r="X1" s="0">
         <v>0</v>
       </c>
       <c r="Y1" s="0">
-        <v>65.970509656555237</v>
+        <v>65.856862262630941</v>
       </c>
       <c r="Z1" s="0">
-        <v>59.763028061595257</v>
+        <v>59.9671357291272</v>
       </c>
       <c r="AA1" s="0">
-        <v>51.711048053582218</v>
+        <v>49.586605826637928</v>
       </c>
     </row>
   </sheetData>
